--- a/exemplos/planilha_exemplo.xlsx
+++ b/exemplos/planilha_exemplo.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Autores</t>
   </si>
   <si>
-    <t xml:space="preserve">Textão</t>
+    <t xml:space="preserve">Textao</t>
   </si>
   <si>
     <t xml:space="preserve">Bossa,Luiz,Fernando</t>
@@ -67,13 +67,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -133,8 +134,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -159,98 +164,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>44433</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>102.55</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>44434</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>1024.15</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>44435</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>20.54</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>44436</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>52.01</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/exemplos/planilha_exemplo.xlsx
+++ b/exemplos/planilha_exemplo.xlsx
@@ -20,18 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Inteiro</t>
   </si>
   <si>
-    <t xml:space="preserve">Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flutuante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autores</t>
+    <t xml:space="preserve">Data:data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horario:hora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flutuante:numero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autores:lista</t>
   </si>
   <si>
     <t xml:space="preserve">Textao</t>
@@ -65,11 +68,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -90,6 +94,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,7 +145,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -143,7 +154,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -164,19 +183,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B6"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.61"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -187,80 +209,99 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>44433</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="4" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>102.55</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>44434</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="4" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>1024.15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>44435</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="4" t="n">
+        <v>0.434027777777778</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>20.54</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>44436</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="4" t="n">
+        <v>0.927083333333333</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>52.01</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="Data:data"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
